--- a/chart.xlsx
+++ b/chart.xlsx
@@ -280,16 +280,16 @@
                   <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>330</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>525</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>668</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>955</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,7 +1421,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>330</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1458,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>525</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>668</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>955</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
